--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/44.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/44.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1041788355799456</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.601746928001361</v>
+        <v>-1.605576516523485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06762391063904102</v>
+        <v>0.06191809132432603</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1849180132589265</v>
+        <v>-0.1867753558220613</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06458219750068783</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.534267941261639</v>
+        <v>-1.540330275907329</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09381873685572707</v>
+        <v>0.0877194127606869</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1864416637683456</v>
+        <v>-0.1881069759986817</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.02108718981033686</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.640897505605472</v>
+        <v>-1.646050844208611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1060567355238399</v>
+        <v>0.1005602607522579</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1835942631779126</v>
+        <v>-0.1856672463606656</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.02271249229992575</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.687954381255878</v>
+        <v>-1.693997040662551</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1497798386753304</v>
+        <v>0.14305090693177</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2146638266132669</v>
+        <v>-0.2166628308973188</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.07053090054444529</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.780265880662799</v>
+        <v>-1.780604294773879</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2393572668685526</v>
+        <v>0.2309331165313513</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2646562479248981</v>
+        <v>-0.2651394717951374</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1253279534253464</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.709742740942483</v>
+        <v>-1.708015254956855</v>
       </c>
       <c r="F7" t="n">
-        <v>0.315210822343154</v>
+        <v>0.3045893413126169</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2766707358777862</v>
+        <v>-0.2763055634416445</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1884306225200081</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.542459136768888</v>
+        <v>-1.538321040498989</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3840662888044526</v>
+        <v>0.3751148420616156</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2800847833518874</v>
+        <v>-0.2788554744181516</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2576033881319138</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.186892152314866</v>
+        <v>-1.182418789972129</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4121011433739392</v>
+        <v>0.4051675891446096</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2768533220958571</v>
+        <v>-0.2745395139875451</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3300390128498125</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7889132226373968</v>
+        <v>-0.7839283040802376</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4508534941403621</v>
+        <v>0.4437767041709942</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2373769225336358</v>
+        <v>-0.2350442261958682</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4046693838541587</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.260787308924741</v>
+        <v>-0.2578407451296661</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4208920401664035</v>
+        <v>0.4143205103349731</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1798103212103058</v>
+        <v>-0.1770400475568166</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4815357047757911</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3129300686363893</v>
+        <v>0.3142727069468588</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2935019506221749</v>
+        <v>0.2875867867643269</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1257396163553846</v>
+        <v>-0.1226875932791825</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5627088729228901</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8969289390978556</v>
+        <v>0.8974231811019441</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09586653573253927</v>
+        <v>0.09186380510707162</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01189396134994842</v>
+        <v>-0.009359790564654314</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6503107927931137</v>
       </c>
       <c r="E14" t="n">
-        <v>1.608258086376941</v>
+        <v>1.602220149027632</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01594414082937554</v>
+        <v>0.01004156912449796</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08651214009464928</v>
+        <v>0.08824828318544393</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7467853160222874</v>
       </c>
       <c r="E15" t="n">
-        <v>2.279174292716632</v>
+        <v>2.266748985773084</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253949061678197</v>
+        <v>-0.1332539836404741</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2034712049220182</v>
+        <v>0.205537892028286</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8547495771003923</v>
       </c>
       <c r="E16" t="n">
-        <v>2.881401878621881</v>
+        <v>2.867751984801961</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2493630781423406</v>
+        <v>-0.2598082690312919</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3068071342545297</v>
+        <v>0.3093302869059746</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9732130626979085</v>
       </c>
       <c r="E17" t="n">
-        <v>3.418069994105836</v>
+        <v>3.405082762335984</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3571818139323164</v>
+        <v>-0.3727472890228589</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3918073148430094</v>
+        <v>0.3945303679228596</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.101456311343103</v>
       </c>
       <c r="E18" t="n">
-        <v>3.892491949418833</v>
+        <v>3.87802671369408</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5354268872666489</v>
+        <v>-0.5522405595203829</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4872164838806506</v>
+        <v>0.4914254110110086</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.239627855077028</v>
       </c>
       <c r="E19" t="n">
-        <v>4.268076522047997</v>
+        <v>4.253431848143416</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7360576605441198</v>
+        <v>-0.7542360073760214</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6098010930475481</v>
+        <v>0.613794379558288</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.389110547346526</v>
       </c>
       <c r="E20" t="n">
-        <v>4.540995697490324</v>
+        <v>4.528981209537435</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.943223761213231</v>
+        <v>-0.9621875435866618</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7164865350701874</v>
+        <v>0.7201288153168772</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.549141411454453</v>
       </c>
       <c r="E21" t="n">
-        <v>4.748706408775405</v>
+        <v>4.737911785641525</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.061940218389532</v>
+        <v>-1.083302805903825</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8598182902749494</v>
+        <v>0.8627868903377225</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.713098219865862</v>
       </c>
       <c r="E22" t="n">
-        <v>4.892971557319098</v>
+        <v>4.884397875165373</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.227438884879572</v>
+        <v>-1.251016117297535</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9616148289068288</v>
+        <v>0.9639097487856851</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.872620714686188</v>
       </c>
       <c r="E23" t="n">
-        <v>4.935400816752879</v>
+        <v>4.930431638386933</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.481920787344542</v>
+        <v>-1.502023372552234</v>
       </c>
       <c r="G23" t="n">
-        <v>1.013769952491127</v>
+        <v>1.017508247904216</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.017670180442314</v>
       </c>
       <c r="E24" t="n">
-        <v>4.982733145749513</v>
+        <v>4.980217863193674</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.692333302451336</v>
+        <v>-1.709806488716895</v>
       </c>
       <c r="G24" t="n">
-        <v>1.112275217140367</v>
+        <v>1.114201816544839</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.140623248036951</v>
       </c>
       <c r="E25" t="n">
-        <v>4.946222198211822</v>
+        <v>4.946763660789549</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.8565294681185</v>
+        <v>-1.871074978818439</v>
       </c>
       <c r="G25" t="n">
-        <v>1.159458014320476</v>
+        <v>1.161320078940975</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.237774989403921</v>
       </c>
       <c r="E26" t="n">
-        <v>4.934580752790682</v>
+        <v>4.934742876760176</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.918700075371634</v>
+        <v>-1.933449421547782</v>
       </c>
       <c r="G26" t="n">
-        <v>1.188764676339974</v>
+        <v>1.190401656226126</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.307280398119203</v>
       </c>
       <c r="E27" t="n">
-        <v>4.838024123813613</v>
+        <v>4.840605515172546</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.008024086486327</v>
+        <v>-2.020235326829378</v>
       </c>
       <c r="G27" t="n">
-        <v>1.208784625543797</v>
+        <v>1.210498732366893</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.349830161284776</v>
       </c>
       <c r="E28" t="n">
-        <v>4.719692514312469</v>
+        <v>4.722905087339044</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.075213453707728</v>
+        <v>-2.085467401273442</v>
       </c>
       <c r="G28" t="n">
-        <v>1.196894485101492</v>
+        <v>1.199030429049097</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.365453498228284</v>
       </c>
       <c r="E29" t="n">
-        <v>4.595403242437203</v>
+        <v>4.599971045927218</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.171746472397979</v>
+        <v>-2.178140138068702</v>
       </c>
       <c r="G29" t="n">
-        <v>1.161513683292895</v>
+        <v>1.164016373695763</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.35374268083888</v>
       </c>
       <c r="E30" t="n">
-        <v>4.489449719305969</v>
+        <v>4.496222723584926</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.1751361225757</v>
+        <v>-2.180603477993538</v>
       </c>
       <c r="G30" t="n">
-        <v>1.114127837646138</v>
+        <v>1.117453740049446</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.315056916192285</v>
       </c>
       <c r="E31" t="n">
-        <v>4.300707512451682</v>
+        <v>4.308339931170869</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.140016607941239</v>
+        <v>-2.144348308563058</v>
       </c>
       <c r="G31" t="n">
-        <v>1.047549976853361</v>
+        <v>1.051060039493862</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.2511462285997</v>
       </c>
       <c r="E32" t="n">
-        <v>4.112967955777663</v>
+        <v>4.122336517587645</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.05724523842852</v>
+        <v>-2.062363948610991</v>
       </c>
       <c r="G32" t="n">
-        <v>1.019869276586167</v>
+        <v>1.024073481659161</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.166589663772516</v>
       </c>
       <c r="E33" t="n">
-        <v>3.89524648288111</v>
+        <v>3.906080456493023</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.001421076272471</v>
+        <v>-2.005924344978512</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9379400073033451</v>
+        <v>0.9417003389841324</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.065927959769358</v>
       </c>
       <c r="E34" t="n">
-        <v>3.678486735667671</v>
+        <v>3.69154322427886</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.90130559006214</v>
+        <v>-1.906608460481802</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8459732180839885</v>
+        <v>0.8509754508514821</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.95268412049123</v>
       </c>
       <c r="E35" t="n">
-        <v>3.439892195203549</v>
+        <v>3.452616565780144</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.837750632991822</v>
+        <v>-1.842926794872219</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7755626207308449</v>
+        <v>0.781274736122045</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.830573772852548</v>
       </c>
       <c r="E36" t="n">
-        <v>3.205456213257903</v>
+        <v>3.218372614167297</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.754361460973993</v>
+        <v>-1.761060486354249</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7229101071042155</v>
+        <v>0.7279501163306203</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.7024548485633</v>
       </c>
       <c r="E37" t="n">
-        <v>3.021565133335465</v>
+        <v>3.032011898243538</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.67776732950282</v>
+        <v>-1.6866739167007</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6616697451517697</v>
+        <v>0.6670119660494642</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.573746329997954</v>
       </c>
       <c r="E38" t="n">
-        <v>2.78460127668101</v>
+        <v>2.797920626485457</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.609698872602171</v>
+        <v>-1.618097051623871</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5807572922213079</v>
+        <v>0.5868975408135019</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.447217546285763</v>
       </c>
       <c r="E39" t="n">
-        <v>2.535572563461786</v>
+        <v>2.549507354742661</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.558352007836661</v>
+        <v>-1.56747502266372</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5241020479692109</v>
+        <v>0.5286950357651663</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.325031693939435</v>
       </c>
       <c r="E40" t="n">
-        <v>2.289665130160101</v>
+        <v>2.303226878909228</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.487755676227204</v>
+        <v>-1.497646812385458</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4973799253468891</v>
+        <v>0.5015258917123951</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.207662916497603</v>
       </c>
       <c r="E41" t="n">
-        <v>2.086917301164481</v>
+        <v>2.101744561287133</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.464563291484399</v>
+        <v>-1.474049117718918</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4230736306685263</v>
+        <v>0.4286236220902325</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.095537886041442</v>
       </c>
       <c r="E42" t="n">
-        <v>1.882529344244465</v>
+        <v>1.896952081452943</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.428293168872267</v>
+        <v>-1.438403880697942</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4081314671500188</v>
+        <v>0.4120208683987528</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9907319909475236</v>
       </c>
       <c r="E43" t="n">
-        <v>1.738977226362721</v>
+        <v>1.751956588036966</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.394583188360931</v>
+        <v>-1.403467739291113</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3621638127315535</v>
+        <v>0.3667772627760859</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8936075475770864</v>
       </c>
       <c r="E44" t="n">
-        <v>1.502567424438964</v>
+        <v>1.517037382221081</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.35435676868741</v>
+        <v>-1.363220070359454</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3095695378124124</v>
+        <v>0.3136966159484628</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8039731791958415</v>
       </c>
       <c r="E45" t="n">
-        <v>1.302857452347454</v>
+        <v>1.318928187575934</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.300102690604857</v>
+        <v>-1.308752712685965</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2937364794712487</v>
+        <v>0.2966216565205929</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7211300199305113</v>
       </c>
       <c r="E46" t="n">
-        <v>1.144147530327584</v>
+        <v>1.159473754511689</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.256268619105315</v>
+        <v>-1.263484709766918</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2717442843084355</v>
+        <v>0.2737259743821531</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6442081450185644</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9984248400775666</v>
+        <v>1.012299818631832</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.178051673920081</v>
+        <v>-1.185518033621971</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2430373235741536</v>
+        <v>0.2443705177698953</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5730588169796363</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8501380726789501</v>
+        <v>0.8643750756311149</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.161395403578477</v>
+        <v>-1.166438560843124</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2038348033390386</v>
+        <v>0.2050027255270438</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5063980703532405</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7214289551110716</v>
+        <v>0.7339140747812287</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.078811342341194</v>
+        <v>-1.085456064061765</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1646590414289858</v>
+        <v>0.1651060628594352</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4431928840770373</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5887674755296071</v>
+        <v>0.6012588912762493</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.021238444941378</v>
+        <v>-1.028079919052112</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1217843345838764</v>
+        <v>0.1224344044809736</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3829024773797866</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4699557901964672</v>
+        <v>0.4833805992820408</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9590025158947099</v>
+        <v>-0.9669269151608981</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1020319686306741</v>
+        <v>0.1020823372425557</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3255507140275626</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3524048941794893</v>
+        <v>0.3645169713178981</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9323827045152726</v>
+        <v>-0.9403700645463129</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05963261556019743</v>
+        <v>0.06008908110537464</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2711456913147631</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1909656230032842</v>
+        <v>0.2051412392097182</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9139761249107824</v>
+        <v>-0.9212795736336176</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0222669756396404</v>
+        <v>0.02275806960548622</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2193280048790474</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08932806030265621</v>
+        <v>0.1018478083934819</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8664139891224395</v>
+        <v>-0.8741864955434223</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0143620233321479</v>
+        <v>-0.01371510147329332</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1697740010903616</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.003842853544495404</v>
+        <v>0.006370956533624759</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8383500151992088</v>
+        <v>-0.8474612248828579</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04224577206598958</v>
+        <v>-0.04195772656679156</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1220215232463615</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1016870301627888</v>
+        <v>-0.09065473014159224</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8364438780433138</v>
+        <v>-0.8455637448321299</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04774067281845028</v>
+        <v>-0.04803658841325482</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.07585490732009474</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2374792337765204</v>
+        <v>-0.2246226455937364</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8239697765070058</v>
+        <v>-0.8337538793650109</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08913265365129447</v>
+        <v>-0.08967726426726451</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.0305832840880197</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3250875640489954</v>
+        <v>-0.3126213326082939</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7711173624519713</v>
+        <v>-0.7838039565696548</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1214346740586272</v>
+        <v>-0.1216865171180353</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.01409114327868491</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4479523486194845</v>
+        <v>-0.4333249889252372</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.826049055766244</v>
+        <v>-0.8369074266745368</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.148476322562573</v>
+        <v>-0.1487627940426497</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.05842409662980336</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5078201658981562</v>
+        <v>-0.4941545318870236</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7964685144196402</v>
+        <v>-0.8091960330344775</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1662202401169957</v>
+        <v>-0.1670906726910749</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1022895871013089</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6077105673741404</v>
+        <v>-0.5939032716420908</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8159721853516769</v>
+        <v>-0.8285643383220824</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1993769529071946</v>
+        <v>-0.1998066601273097</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1450335754918871</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6959784116584403</v>
+        <v>-0.6828447961103074</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8570965829339</v>
+        <v>-0.8700200669293393</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2232406568052344</v>
+        <v>-0.2248650445384167</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.185967499121668</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7802325071834235</v>
+        <v>-0.7665637251340484</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8580771968464703</v>
+        <v>-0.8713863155266284</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2365615806288021</v>
+        <v>-0.2384787359185463</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2237602081528234</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8303768213402603</v>
+        <v>-0.8163609680746382</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8659661806824295</v>
+        <v>-0.8794193221121864</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2641982083605996</v>
+        <v>-0.2654700158106105</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2570423323133704</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9068025327654544</v>
+        <v>-0.8942284810149439</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8678479205419444</v>
+        <v>-0.8818503946450353</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2753690220644706</v>
+        <v>-0.2772121984555136</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2846452112436822</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9342526392313778</v>
+        <v>-0.9225041605099895</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8790085031215269</v>
+        <v>-0.8927237187349805</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2903993306537708</v>
+        <v>-0.2917970596334858</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3052937058825793</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.003679474633709</v>
+        <v>-0.9924032016487104</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8531922285035137</v>
+        <v>-0.8680139795592416</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.28288338934956</v>
+        <v>-0.2856269046779871</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3182050602871138</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.023464894988458</v>
+        <v>-1.013119654313709</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9087771397531261</v>
+        <v>-0.9231652485409357</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.30419403423285</v>
+        <v>-0.3067156128651737</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3228204965677351</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.035793399756046</v>
+        <v>-1.025388346354688</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8891066227942315</v>
+        <v>-0.9042179933682787</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3216011116953144</v>
+        <v>-0.3240408413333304</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3188738215318651</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.038022210831808</v>
+        <v>-1.029388715951473</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9229952544758353</v>
+        <v>-0.9379098726597199</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3209652079703089</v>
+        <v>-0.3237354816237981</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3065565608510916</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.003156900285437</v>
+        <v>-0.9956378109429833</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9674298142701537</v>
+        <v>-0.9819753249700933</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3166791539030071</v>
+        <v>-0.3202159748685697</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2862816905751279</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9377257124225278</v>
+        <v>-0.9324330731271542</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.02597152043913</v>
+        <v>-1.039879553394942</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2890299340182392</v>
+        <v>-0.2936071816229816</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.258658566346447</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8670585499526121</v>
+        <v>-0.8626143069636196</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.064288654918513</v>
+        <v>-1.077041357839291</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2938259702808424</v>
+        <v>-0.2971440025885443</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2248058797603057</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8069562038248667</v>
+        <v>-0.8038144616587505</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.110774161627886</v>
+        <v>-1.122349498245931</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2907912614149747</v>
+        <v>-0.2939849462120938</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1859217619042984</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6821364875057221</v>
+        <v>-0.6807859790996461</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.153131803191648</v>
+        <v>-1.16296076559461</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2584168361280622</v>
+        <v>-0.2623739201990121</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1432892378135091</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5372307131796594</v>
+        <v>-0.5373157102122097</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.217439928411509</v>
+        <v>-1.225695658702731</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2281547445019351</v>
+        <v>-0.2325320916782723</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.09839656911712953</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4154268174969271</v>
+        <v>-0.4166545524115416</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.216722962701757</v>
+        <v>-1.224755969287315</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1904443943938132</v>
+        <v>-0.1949256268321563</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.05226371482221111</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2803067200479908</v>
+        <v>-0.2817626877351939</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.250249569985461</v>
+        <v>-1.258018928368202</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1695508645776679</v>
+        <v>-0.173613407929745</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.006057108177784157</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1316626503088391</v>
+        <v>-0.1341826549220415</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.274114847902622</v>
+        <v>-1.279757706452485</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1325330828829183</v>
+        <v>-0.1373448593367345</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.03925688987034699</v>
       </c>
       <c r="E80" t="n">
-        <v>0.009202616932844698</v>
+        <v>0.007291757719585662</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.260879708121166</v>
+        <v>-1.266322666242623</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1061053018362798</v>
+        <v>-0.1106085705423211</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.08256520773629414</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1609490783600801</v>
+        <v>0.1602990084629829</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.301918321661278</v>
+        <v>-1.305821889082103</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.08722651649539934</v>
+        <v>-0.09133470640199413</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1227238483052034</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2713318912986548</v>
+        <v>0.2714751270386931</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.30514033880258</v>
+        <v>-1.309866331214286</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01401888716370435</v>
+        <v>-0.01983488781691039</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1583189790287572</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4319322102832065</v>
+        <v>0.4327381080733125</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.285297466749903</v>
+        <v>-1.288624943172333</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.001795054667683209</v>
+        <v>-0.006893302601576137</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1879482457674457</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5634304897340299</v>
+        <v>0.5657238355937649</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.287297258043516</v>
+        <v>-1.289289179241522</v>
       </c>
       <c r="G84" t="n">
-        <v>0.08120769565586596</v>
+        <v>0.07313297756359344</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2100948181483551</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7018906557583662</v>
+        <v>0.7037889228186548</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.235460873331281</v>
+        <v>-1.237230070823623</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1214758268361015</v>
+        <v>0.1129477912368943</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2233169604257836</v>
       </c>
       <c r="E86" t="n">
-        <v>0.888397755460406</v>
+        <v>0.8898127986504553</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.196725836775192</v>
+        <v>-1.197338130213378</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1655042896971243</v>
+        <v>0.156886535008003</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2259642869062652</v>
       </c>
       <c r="E87" t="n">
-        <v>1.011563177683064</v>
+        <v>1.012301392650953</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.061794621620812</v>
+        <v>-1.063448128707738</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1954043569253522</v>
+        <v>0.1872068653416182</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2160195594441259</v>
       </c>
       <c r="E88" t="n">
-        <v>1.147215293594999</v>
+        <v>1.147306586704035</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9473130628903703</v>
+        <v>-0.9489484687574017</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2263716091178219</v>
+        <v>0.2186604894425698</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1924953611070848</v>
       </c>
       <c r="E89" t="n">
-        <v>1.250960467899049</v>
+        <v>1.251720719134637</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8629889235144892</v>
+        <v>-0.8639695374270595</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2384128553957721</v>
+        <v>0.2305537779231178</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.15453260678094</v>
       </c>
       <c r="E90" t="n">
-        <v>1.32862886742051</v>
+        <v>1.328921634977072</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7482893631357475</v>
+        <v>-0.7475527221869787</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2028856698088943</v>
+        <v>0.198031394838803</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1031622751043836</v>
       </c>
       <c r="E91" t="n">
-        <v>1.318701528822467</v>
+        <v>1.320365267033682</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6084975769347907</v>
+        <v>-0.6065835696832891</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1982312952672082</v>
+        <v>0.192985089535913</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04072547163168784</v>
       </c>
       <c r="E92" t="n">
-        <v>1.304269347499261</v>
+        <v>1.306565841397238</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4777154761841592</v>
+        <v>-0.4748570574598771</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1723040523011433</v>
+        <v>0.168187992298942</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02833516664780019</v>
       </c>
       <c r="E93" t="n">
-        <v>1.27264730335233</v>
+        <v>1.275658401931378</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.343061288395128</v>
+        <v>-0.3392096636053051</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1650824525726157</v>
+        <v>0.1613473051977692</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.09948615563528579</v>
       </c>
       <c r="E94" t="n">
-        <v>1.190689701725324</v>
+        <v>1.195018254308901</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1934413268007698</v>
+        <v>-0.1897030313876806</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1469969728688708</v>
+        <v>0.1427313810501459</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1676939522904099</v>
       </c>
       <c r="E95" t="n">
-        <v>1.157584931566128</v>
+        <v>1.162228287973965</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1017279546599426</v>
+        <v>-0.09659665232450233</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1288926049356703</v>
+        <v>0.1242051759924368</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2290124876671369</v>
       </c>
       <c r="E96" t="n">
-        <v>1.118675178887575</v>
+        <v>1.121454896655792</v>
       </c>
       <c r="F96" t="n">
-        <v>0.005453303385906458</v>
+        <v>0.009931387786006916</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05925170293284267</v>
+        <v>0.05644207880132094</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2815326866883465</v>
       </c>
       <c r="E97" t="n">
-        <v>1.022288543975606</v>
+        <v>1.027049951817541</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06275074743949409</v>
+        <v>0.06593813616012799</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03380296177965315</v>
+        <v>0.03197867361806565</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3255192570532096</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9986058522765162</v>
+        <v>1.002115914917017</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09803553408169162</v>
+        <v>0.1003414720943971</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.006433689018156336</v>
+        <v>-0.007625221492980956</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3626990113917047</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9754866594228517</v>
+        <v>0.9774478872479924</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1647613526718704</v>
+        <v>0.1648463497044206</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02457740742938936</v>
+        <v>-0.02522590330736525</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3971989753575295</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8853598985562956</v>
+        <v>0.8870315068631169</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1538250678170732</v>
+        <v>0.1538880285819252</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03590090098802651</v>
+        <v>-0.03596228773375724</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4294187698415275</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8036462698930917</v>
+        <v>0.8056924947507826</v>
       </c>
       <c r="F101" t="n">
-        <v>0.142182048376812</v>
+        <v>0.1418200239789129</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0649368317186603</v>
+        <v>-0.06473535727113382</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4638371335641369</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6816283076098624</v>
+        <v>0.6840475749993016</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1372412023550491</v>
+        <v>0.1369751931235493</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08249658903589077</v>
+        <v>-0.08266343506274865</v>
       </c>
     </row>
   </sheetData>
